--- a/biology/Médecine/Lazar_Remen/Lazar_Remen.xlsx
+++ b/biology/Médecine/Lazar_Remen/Lazar_Remen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lazar Remen (Eliezer Remen) né à Białymstokuen, en Pologne, en 1907 et mort en 1974 en Israël est un médecin juif allemand qui fut le premier à démontrer l’efficacité du traitement anticholinestérasique dans la myasthénie, deux ans avant Mary Walker[1]. Alors qu’il est encore un jeune assistant à l’hôpital de l’université de Münster en Westphalie il traite avec succès par la prostigmine un patient de 49 ans, sans cependant mentionner cet effet dans la discussion de son article[2].
-Il immigre en 1933 en Palestine mandataire qui devient en 1948 l'État d'Israël. En 1964, il pratiquait encore la médecine générale à Petah Tikva[3] en Israël.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lazar Remen (Eliezer Remen) né à Białymstokuen, en Pologne, en 1907 et mort en 1974 en Israël est un médecin juif allemand qui fut le premier à démontrer l’efficacité du traitement anticholinestérasique dans la myasthénie, deux ans avant Mary Walker. Alors qu’il est encore un jeune assistant à l’hôpital de l’université de Münster en Westphalie il traite avec succès par la prostigmine un patient de 49 ans, sans cependant mentionner cet effet dans la discussion de son article.
+Il immigre en 1933 en Palestine mandataire qui devient en 1948 l'État d'Israël. En 1964, il pratiquait encore la médecine générale à Petah Tikva en Israël.
 </t>
         </is>
       </c>
